--- a/spliced/falling/2023-03-25_18-02-03/accelerometer_selected.xlsx
+++ b/spliced/falling/2023-03-25_18-02-03/accelerometer_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,233 +452,222 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-2.657281875610353</v>
+        <v>-2.092850303649902</v>
       </c>
       <c r="B2" t="n">
-        <v>0.2476238250732379</v>
+        <v>0.9900987625122062</v>
       </c>
       <c r="C2" t="n">
-        <v>2.285648679733275</v>
+        <v>1.828120517730715</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-4.063823699951181</v>
+        <v>-2.105730056762695</v>
       </c>
       <c r="B3" t="n">
-        <v>-1.187473011016849</v>
+        <v>0.8735208511352541</v>
       </c>
       <c r="C3" t="n">
-        <v>2.541466045379643</v>
+        <v>2.453470587730407</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-5.616066837310788</v>
+        <v>-2.657281875610353</v>
       </c>
       <c r="B4" t="n">
-        <v>-2.403632545471194</v>
+        <v>0.2476238250732379</v>
       </c>
       <c r="C4" t="n">
-        <v>3.652213478088379</v>
+        <v>2.285648679733275</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-3.539181804656983</v>
+        <v>-4.063823699951181</v>
       </c>
       <c r="B5" t="n">
-        <v>-3.395954704284656</v>
+        <v>-1.187473011016849</v>
       </c>
       <c r="C5" t="n">
-        <v>3.008686828613268</v>
+        <v>2.541466045379643</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-3.633686542510985</v>
+        <v>-5.616066837310788</v>
       </c>
       <c r="B6" t="n">
-        <v>3.542618751525879</v>
+        <v>-2.403632545471194</v>
       </c>
       <c r="C6" t="n">
-        <v>-4.68873119354248</v>
+        <v>3.652213478088379</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>53.59859118461612</v>
+        <v>-3.539181804656983</v>
       </c>
       <c r="B7" t="n">
-        <v>-4.54958009719849</v>
+        <v>-3.395954704284656</v>
       </c>
       <c r="C7" t="n">
-        <v>-34.16661596298219</v>
+        <v>3.008686828613268</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>10.96323089599605</v>
+        <v>-3.633686542510985</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.1360907554626412</v>
+        <v>3.542618751525879</v>
       </c>
       <c r="C8" t="n">
-        <v>-11.01923332214353</v>
+        <v>-4.68873119354248</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-1.288498878479004</v>
+        <v>53.59859118461612</v>
       </c>
       <c r="B9" t="n">
-        <v>0.4897777378559073</v>
+        <v>-4.54958009719849</v>
       </c>
       <c r="C9" t="n">
-        <v>-1.382943773269636</v>
+        <v>-34.16661596298219</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.2403127670288223</v>
+        <v>10.96323089599605</v>
       </c>
       <c r="B10" t="n">
-        <v>0.4333343148231529</v>
+        <v>-0.1360907554626412</v>
       </c>
       <c r="C10" t="n">
-        <v>1.078743743896495</v>
+        <v>-11.01923332214353</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.6345248222351046</v>
+        <v>-1.288498878479004</v>
       </c>
       <c r="B11" t="n">
-        <v>0.4263583719730371</v>
+        <v>0.4897777378559073</v>
       </c>
       <c r="C11" t="n">
-        <v>1.455561161041258</v>
+        <v>-1.382943773269636</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-0.09080390930175844</v>
+        <v>0.2403127670288223</v>
       </c>
       <c r="B12" t="n">
-        <v>2.436175584793104</v>
+        <v>0.4333343148231529</v>
       </c>
       <c r="C12" t="n">
-        <v>1.085069131851197</v>
+        <v>1.078743743896495</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-1.009081411361702</v>
+        <v>0.6345248222351046</v>
       </c>
       <c r="B13" t="n">
-        <v>3.721519541740399</v>
+        <v>0.4263583719730371</v>
       </c>
       <c r="C13" t="n">
-        <v>1.14239126443863</v>
+        <v>1.455561161041258</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-2.444419670104975</v>
+        <v>-0.09080390930175844</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.2522135257720842</v>
+        <v>2.436175584793104</v>
       </c>
       <c r="C14" t="n">
-        <v>1.136495351791381</v>
+        <v>1.085069131851197</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-1.008091449737549</v>
+        <v>-1.009081411361702</v>
       </c>
       <c r="B15" t="n">
-        <v>2.286790394783017</v>
+        <v>3.721519541740399</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9021725535392736</v>
+        <v>1.14239126443863</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-1.014060974121094</v>
+        <v>-2.444419670104975</v>
       </c>
       <c r="B16" t="n">
-        <v>1.50408124923706</v>
+        <v>-0.2522135257720842</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3019133806228637</v>
+        <v>1.136495351791381</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-0.6290699958801254</v>
+        <v>-1.008091449737549</v>
       </c>
       <c r="B17" t="n">
-        <v>1.975620031356814</v>
+        <v>2.286790394783017</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.5599067687988319</v>
+        <v>0.9021725535392736</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-1.261460304260257</v>
+        <v>-1.014060974121094</v>
       </c>
       <c r="B18" t="n">
-        <v>1.682102203369138</v>
+        <v>1.50408124923706</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.007327961921688053</v>
+        <v>0.3019133806228637</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-0.9165861129760703</v>
+        <v>-0.6290699958801254</v>
       </c>
       <c r="B19" t="n">
-        <v>1.882461953163149</v>
+        <v>1.975620031356814</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1453821629285811</v>
+        <v>-0.5599067687988319</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-0.8792205810546895</v>
+        <v>-1.261460304260257</v>
       </c>
       <c r="B20" t="n">
-        <v>1.9060809135437</v>
+        <v>1.682102203369138</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1410199522972106</v>
+        <v>-0.007327961921688053</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-0.9211750030517577</v>
+        <v>-0.9165861129760703</v>
       </c>
       <c r="B21" t="n">
-        <v>1.817085385322571</v>
+        <v>1.882461953163149</v>
       </c>
       <c r="C21" t="n">
-        <v>0.09843596816062908</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>-0.8201595306396483</v>
-      </c>
-      <c r="B22" t="n">
-        <v>1.820924615859986</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.07434962689876565</v>
+        <v>0.1453821629285811</v>
       </c>
     </row>
   </sheetData>

--- a/spliced/falling/2023-03-25_18-02-03/accelerometer_selected.xlsx
+++ b/spliced/falling/2023-03-25_18-02-03/accelerometer_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-2.092850303649902</v>
+        <v>-1.765928411483764</v>
       </c>
       <c r="B2" t="n">
-        <v>0.9900987625122062</v>
+        <v>1.167147111892701</v>
       </c>
       <c r="C2" t="n">
-        <v>1.828120517730715</v>
+        <v>0.571823143959045</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-2.105730056762695</v>
+        <v>-1.709035491943359</v>
       </c>
       <c r="B3" t="n">
-        <v>0.8735208511352541</v>
+        <v>1.218545722961426</v>
       </c>
       <c r="C3" t="n">
-        <v>2.453470587730407</v>
+        <v>0.4037320613861088</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-2.657281875610353</v>
+        <v>-1.738995742797851</v>
       </c>
       <c r="B4" t="n">
-        <v>0.2476238250732379</v>
+        <v>1.102185392379761</v>
       </c>
       <c r="C4" t="n">
-        <v>2.285648679733275</v>
+        <v>0.6806826651096344</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-4.063823699951181</v>
+        <v>-1.775501251220703</v>
       </c>
       <c r="B5" t="n">
-        <v>-1.187473011016849</v>
+        <v>1.23273515701294</v>
       </c>
       <c r="C5" t="n">
-        <v>2.541466045379643</v>
+        <v>0.5835052132606506</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-5.616066837310788</v>
+        <v>-1.910298776626587</v>
       </c>
       <c r="B6" t="n">
-        <v>-2.403632545471194</v>
+        <v>1.120057487487793</v>
       </c>
       <c r="C6" t="n">
-        <v>3.652213478088379</v>
+        <v>0.7890581786632539</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-3.539181804656983</v>
+        <v>-1.610696506500243</v>
       </c>
       <c r="B7" t="n">
-        <v>-3.395954704284656</v>
+        <v>1.25785665512085</v>
       </c>
       <c r="C7" t="n">
-        <v>3.008686828613268</v>
+        <v>0.8155304193496704</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-3.633686542510985</v>
+        <v>-2.127863931655885</v>
       </c>
       <c r="B8" t="n">
-        <v>3.542618751525879</v>
+        <v>1.3188805103302</v>
       </c>
       <c r="C8" t="n">
-        <v>-4.68873119354248</v>
+        <v>0.8300568103790283</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>53.59859118461612</v>
+        <v>-2.092850303649902</v>
       </c>
       <c r="B9" t="n">
-        <v>-4.54958009719849</v>
+        <v>0.9900987625122062</v>
       </c>
       <c r="C9" t="n">
-        <v>-34.16661596298219</v>
+        <v>1.828120517730715</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>10.96323089599605</v>
+        <v>-2.105730056762695</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.1360907554626412</v>
+        <v>0.8735208511352541</v>
       </c>
       <c r="C10" t="n">
-        <v>-11.01923332214353</v>
+        <v>2.453470587730407</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-1.288498878479004</v>
+        <v>-2.657281875610353</v>
       </c>
       <c r="B11" t="n">
-        <v>0.4897777378559073</v>
+        <v>0.2476238250732379</v>
       </c>
       <c r="C11" t="n">
-        <v>-1.382943773269636</v>
+        <v>2.285648679733275</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.2403127670288223</v>
+        <v>-4.063823699951181</v>
       </c>
       <c r="B12" t="n">
-        <v>0.4333343148231529</v>
+        <v>-1.187473011016849</v>
       </c>
       <c r="C12" t="n">
-        <v>1.078743743896495</v>
+        <v>2.541466045379643</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.6345248222351046</v>
+        <v>-5.616066837310788</v>
       </c>
       <c r="B13" t="n">
-        <v>0.4263583719730371</v>
+        <v>-2.403632545471194</v>
       </c>
       <c r="C13" t="n">
-        <v>1.455561161041258</v>
+        <v>3.652213478088379</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-0.09080390930175844</v>
+        <v>-3.539181804656983</v>
       </c>
       <c r="B14" t="n">
-        <v>2.436175584793104</v>
+        <v>-3.395954704284656</v>
       </c>
       <c r="C14" t="n">
-        <v>1.085069131851197</v>
+        <v>3.008686828613268</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-1.009081411361702</v>
+        <v>-3.633686542510985</v>
       </c>
       <c r="B15" t="n">
-        <v>3.721519541740399</v>
+        <v>3.542618751525879</v>
       </c>
       <c r="C15" t="n">
-        <v>1.14239126443863</v>
+        <v>-4.68873119354248</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-2.444419670104975</v>
+        <v>53.59859118461612</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.2522135257720842</v>
+        <v>-4.54958009719849</v>
       </c>
       <c r="C16" t="n">
-        <v>1.136495351791381</v>
+        <v>-34.16661596298219</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-1.008091449737549</v>
+        <v>10.96323089599605</v>
       </c>
       <c r="B17" t="n">
-        <v>2.286790394783017</v>
+        <v>-0.1360907554626412</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9021725535392736</v>
+        <v>-11.01923332214353</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-1.014060974121094</v>
+        <v>-1.288498878479004</v>
       </c>
       <c r="B18" t="n">
-        <v>1.50408124923706</v>
+        <v>0.4897777378559073</v>
       </c>
       <c r="C18" t="n">
-        <v>0.3019133806228637</v>
+        <v>-1.382943773269636</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-0.6290699958801254</v>
+        <v>0.2403127670288223</v>
       </c>
       <c r="B19" t="n">
-        <v>1.975620031356814</v>
+        <v>0.4333343148231529</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.5599067687988319</v>
+        <v>1.078743743896495</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-1.261460304260257</v>
+        <v>0.6345248222351046</v>
       </c>
       <c r="B20" t="n">
-        <v>1.682102203369138</v>
+        <v>0.4263583719730371</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.007327961921688053</v>
+        <v>1.455561161041258</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
+        <v>-0.09080390930175844</v>
+      </c>
+      <c r="B21" t="n">
+        <v>2.436175584793104</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.085069131851197</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>-1.009081411361702</v>
+      </c>
+      <c r="B22" t="n">
+        <v>3.721519541740399</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1.14239126443863</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>-2.444419670104975</v>
+      </c>
+      <c r="B23" t="n">
+        <v>-0.2522135257720842</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1.136495351791381</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>-1.008091449737549</v>
+      </c>
+      <c r="B24" t="n">
+        <v>2.286790394783017</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.9021725535392736</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>-1.014060974121094</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1.50408124923706</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.3019133806228637</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>-0.6290699958801254</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1.975620031356814</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-0.5599067687988319</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>-1.261460304260257</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1.682102203369138</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-0.007327961921688053</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
         <v>-0.9165861129760703</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B28" t="n">
         <v>1.882461953163149</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C28" t="n">
         <v>0.1453821629285811</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>-0.8792205810546895</v>
+      </c>
+      <c r="B29" t="n">
+        <v>1.9060809135437</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.1410199522972106</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>-0.9211750030517577</v>
+      </c>
+      <c r="B30" t="n">
+        <v>1.817085385322571</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.09843596816062908</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>-0.8201595306396483</v>
+      </c>
+      <c r="B31" t="n">
+        <v>1.820924615859986</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.07434962689876565</v>
       </c>
     </row>
   </sheetData>
